--- a/document/Rules.xlsx
+++ b/document/Rules.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Storage\PeronalData\laptrinh\GIT2\InvestAndChill\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D1C8EE1-7638-4607-AAE5-890739836C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E42FBD3-AD8B-4CAC-8F5B-3FCBB6CE20A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FC6EAE8E-7CB9-4325-B185-579A0EC540F0}"/>
   </bookViews>
@@ -24,12 +24,37 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>Địa chỉ Email:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Điện thoại: </t>
+  </si>
+  <si>
+    <t>investnchilloffice@gmail.com</t>
+  </si>
+  <si>
+    <t>0962023236</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -52,13 +77,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -371,12 +400,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CCC8979-EAB3-4AA4-838D-FD957CC6EAC7}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="2" max="2" width="34.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{FD03A3CA-1069-4B3F-9913-E6AE1DD2DEAA}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/document/Rules.xlsx
+++ b/document/Rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Storage\PeronalData\laptrinh\GIT2\InvestAndChill\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E42FBD3-AD8B-4CAC-8F5B-3FCBB6CE20A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28FFC763-B47E-4DDA-9518-70DB939F6BE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FC6EAE8E-7CB9-4325-B185-579A0EC540F0}"/>
   </bookViews>
@@ -33,10 +33,11 @@
     <t xml:space="preserve">Điện thoại: </t>
   </si>
   <si>
-    <t>investnchilloffice@gmail.com</t>
+    <t>0962023236</t>
   </si>
   <si>
-    <t>0962023236</t>
+    <t>investnchilloffice@gmail.com
+InvestChill2024#</t>
   </si>
 </sst>
 </file>
@@ -83,8 +84,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -403,7 +406,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -412,20 +415,20 @@
     <col min="2" max="2" width="34.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/document/Rules.xlsx
+++ b/document/Rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Storage\PeronalData\laptrinh\GIT2\InvestAndChill\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28FFC763-B47E-4DDA-9518-70DB939F6BE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81C309D1-9E88-4B98-BFC3-BBF0351C8822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FC6EAE8E-7CB9-4325-B185-579A0EC540F0}"/>
   </bookViews>
